--- a/results/KQ_danh_gia.xlsx
+++ b/results/KQ_danh_gia.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14205.17960279792</v>
+        <v>18198.8226285782</v>
       </c>
       <c r="C2" t="n">
-        <v>10323.5203403418</v>
+        <v>12229.54745888077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8972848047363136</v>
+        <v>0.8912432690057982</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8932222893674215</v>
+        <v>0.8388458200172095</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8932222893674215</v>
+        <v>0.8388458200172095</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14273.21766844311</v>
+        <v>18579.31755077729</v>
       </c>
       <c r="C3" t="n">
-        <v>10468.08957498803</v>
+        <v>12482.15213213782</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8977341765590321</v>
+        <v>0.891600027437638</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8921969806520949</v>
+        <v>0.8320366587622061</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8921969806520949</v>
+        <v>0.8320366587622061</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14273.8711190085</v>
+        <v>18581.47578883143</v>
       </c>
       <c r="C4" t="n">
-        <v>10469.74459529686</v>
+        <v>12483.52977279616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8977341894193256</v>
+        <v>0.8916000398914464</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8921871096393914</v>
+        <v>0.8319976340855804</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8921871096393914</v>
+        <v>0.8319976340855804</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18730.55874431566</v>
+        <v>21983.38194985007</v>
       </c>
       <c r="C5" t="n">
-        <v>15320.96022502997</v>
+        <v>17363.27650097158</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7961243765806462</v>
+        <v>0.781930276504616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8143527105595637</v>
+        <v>0.7648505315541139</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8143527105595637</v>
+        <v>0.7648505315541139</v>
       </c>
     </row>
   </sheetData>

--- a/results/KQ_danh_gia.xlsx
+++ b/results/KQ_danh_gia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>R-squared (test)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nash-Sutcliffe Efficiency(NSE)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,19 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18198.8226285782</v>
+        <v>14201.31901267528</v>
       </c>
       <c r="C2" t="n">
-        <v>12229.54745888077</v>
+        <v>10278.34247119808</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8912432690057982</v>
+        <v>0.897136529980916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8388458200172095</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8388458200172095</v>
+        <v>0.8932803201661328</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18579.31755077729</v>
+        <v>14273.21766844311</v>
       </c>
       <c r="C3" t="n">
-        <v>12482.15213213782</v>
+        <v>10468.08957498803</v>
       </c>
       <c r="D3" t="n">
-        <v>0.891600027437638</v>
+        <v>0.8977341765590321</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8320366587622061</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8320366587622061</v>
+        <v>0.8921969806520949</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18581.47578883143</v>
+        <v>14273.8711190085</v>
       </c>
       <c r="C4" t="n">
-        <v>12483.52977279616</v>
+        <v>10469.74459529686</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8916000398914464</v>
+        <v>0.8977341894193256</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8319976340855804</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8319976340855804</v>
+        <v>0.8921871096393914</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21983.38194985007</v>
+        <v>18271.33210881677</v>
       </c>
       <c r="C5" t="n">
-        <v>17363.27650097158</v>
+        <v>14818.4012649899</v>
       </c>
       <c r="D5" t="n">
-        <v>0.781930276504616</v>
+        <v>0.8059914443390367</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7648505315541139</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7648505315541139</v>
+        <v>0.8233443344850091</v>
       </c>
     </row>
   </sheetData>
